--- a/DesignData/QuestionTable.xlsx
+++ b/DesignData/QuestionTable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10hou\Desktop\MaeBTI\DesignData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178A5715-FFD4-4D99-B1D3-D083E66015BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="19095" windowHeight="10125"/>
+    <workbookView xWindow="18430" yWindow="1170" windowWidth="19950" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -89,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isUnionable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isComDealer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,13 +168,17 @@
   </si>
   <si>
     <t>보스 딜링 난이도가 쉬운 직업이 좋다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUnion6000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -216,8 +222,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -227,6 +233,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -553,19 +562,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -581,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -589,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -597,15 +606,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -613,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -621,108 +630,108 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DesignData/QuestionTable.xlsx
+++ b/DesignData/QuestionTable.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10hou\Desktop\MaeBTI\DesignData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178A5715-FFD4-4D99-B1D3-D083E66015BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18430" yWindow="1170" windowWidth="19950" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="19095" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>question</t>
   </si>
@@ -43,7 +37,107 @@
     <t>isFieldEasy</t>
   </si>
   <si>
-    <t>나는 직업의 유틸성을 중요하게 생각한다</t>
+    <t>자기버프보다 파티원을 강화해주는 스킬이 있으면 좋겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동기로 트리플 점프가 좋다고 생각한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동기로 텔레포트 직업이 좋다고 생각한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 지속적으로 때리는 직업이 좋거나 지속 데미지에 자신이 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계 스킬 사용을 좋아한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUnionable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isComDealer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUltDealer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasPartyUtil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseLinkedskill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasTripleJump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasTeleport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasOwnBind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasKeyDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 캐릭터 직업을 다른 사람들이 잘 안했으면 좋겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUnique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리 딜러(근거리에서 공격하는 직업)가 좋다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAttackRangeShort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카루타, 스데미까지 잡기 편한 직업이 좋다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFieldSkillEasy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥마릿수 상관없이 사냥 스킬 원킬컷이 낮은 직업이 좋다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEasyDeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNewbieGood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 스킬이 적더라도 코어강화 난이도가 쉬워야한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 직업의 강함도 중요하지만 무엇보다도 유틸성을 중요하게 생각한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도가 어렵더라도 직업의 이론상 데미지가 높아야한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -51,134 +145,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자기버프보다 파티원을 강화해주는 스킬이 있으면 좋겠다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무엇보다도 코어강화 난이도가 쉬워야한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직업의 이론상 데미지가 높아야한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 유니온 캐릭터 육성에 자신있다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주로 보스플레이를 즐긴다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주로 사냥플레이를 즐긴다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동기로 트리플 점프가 좋다고 생각한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동기로 텔레포트 직업이 좋다고 생각한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 지속적으로 때리는 직업이 좋거나 지속 데미지에 자신이 있다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연계 스킬 사용을 좋아한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자체 바인드가 있으면 좋겠다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isComDealer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isUltDealer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasPartyUtil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseLinkedskill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasTripleJump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasTeleport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasOwnBind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강력한 키다운 공격 스킬이 있으면 좋다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hasKeyDown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 캐릭터 직업을 다른 사람들이 잘 안했으면 좋겠다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isUnique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근거리 딜러(근거리에서 공격하는 직업)가 좋다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAttackRangeShort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카루타, 스데미까지 잡기 편한 직업이 좋다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFieldSkillEasy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥마릿수 상관없이 사냥 스킬 원킬컷이 낮은 직업이 좋다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isEasyDeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isNewbieGood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 딜링 난이도가 쉬운 직업이 좋다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isUnion6000</t>
+    <t>리스크가 있더라도 강력한 키다운 공격 스킬이 있으면 좋다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리에서 공격하는 딜러가 좋다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어려운 컨트롤이 없고 보스 딜링 난이도가 쉬운 직업이 좋다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 유니온 캐릭터 육성에 자신이 있는 편이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 RPG의 사냥플레이에서 재미를 느끼는 편이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 무엇보다도 RPG는 보스플레이에서 재미를 느낀다고 생각한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAttackRangeLong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -222,8 +224,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -233,9 +235,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -562,19 +561,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.53515625" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,156 +581,164 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="18" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="21" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
